--- a/仕様/エネミー仕様.xlsx
+++ b/仕様/エネミー仕様.xlsx
@@ -19,9 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>■エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■人型（雑魚敵）</t>
+    <rPh sb="1" eb="3">
+      <t>ヒトガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■（中ボス）</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■大型兵器（ボス）</t>
+    <rPh sb="1" eb="3">
+      <t>オオガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -45,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -55,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -71,9 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -340,10 +382,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -353,7 +395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="3019425"/>
+          <a:off x="7743825" y="2505075"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -553,6 +595,786 @@
               </a:solidFill>
             </a:rPr>
             <a:t>敵の形、人型やその他で弱点位置が異なる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="3495675"/>
+          <a:ext cx="3009900" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2723823" cy="800604"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="3590925"/>
+          <a:ext cx="2723823" cy="800604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プレイヤー同様にパーツを装備できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体に対して装備は１つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・装備しているパーツで行動が違う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="7058025"/>
+          <a:ext cx="3009900" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3009798" cy="800604"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="7153275"/>
+          <a:ext cx="3009798" cy="800604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プレイヤー同様にパーツを装備できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個パーツを装備している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・雑魚敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体に対し中ボス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体のイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="10153650"/>
+          <a:ext cx="3009900" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3147015" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="10248900"/>
+          <a:ext cx="3147015" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プレイヤー同様にパーツを装備できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体で複数のパーツを装備している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ステージ最奥でプレイヤーを待ち構えている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の割合で特殊行動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動の変化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3993401" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="3590925"/>
+          <a:ext cx="3993401" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>汎用重火器：射撃攻撃をメインにし近づくと近接攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>汎用ランチャー：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>射撃攻撃をメインにし近づくと近接攻撃</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>強化アーム：近接攻撃のみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ジェットパック：空中を飛んでおり、射撃攻撃をする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -830,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,9 +1665,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A40:XFD40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様/エネミー仕様.xlsx
+++ b/仕様/エネミー仕様.xlsx
@@ -84,13 +84,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,10 +110,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1654,29 +1654,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
